--- a/Excel Files/Traffic_Data_Nationality.xlsx
+++ b/Excel Files/Traffic_Data_Nationality.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsoedarnadi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsoedarnadi/Documents/GitHub/Datathon-Dataverse/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63739F8-B7BA-1D4F-BC67-1F6EE174156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29909E49-8E79-DA4B-BDE0-66627E626E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cleaned_Traffic_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Nationality" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cleaned_Traffic_Data!$A$1:$E$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nationality!$A$1:$E$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
       <selection activeCell="F830" sqref="F830:F901"/>
     </sheetView>
   </sheetViews>
